--- a/data/pca/factorExposure/factorExposure_2009-01-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-01-08.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01792789127841063</v>
+        <v>-0.01704882505160124</v>
       </c>
       <c r="C2">
-        <v>-0.008749706693413075</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.01087928456251222</v>
+      </c>
+      <c r="D2">
+        <v>0.01240672741591739</v>
+      </c>
+      <c r="E2">
+        <v>0.01344850115269284</v>
+      </c>
+      <c r="F2">
+        <v>-0.007832961209428837</v>
+      </c>
+      <c r="G2">
+        <v>-0.01672247200729646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.08054170908528119</v>
+        <v>-0.08325690573260741</v>
       </c>
       <c r="C4">
-        <v>-0.0850651208634931</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.0881846620897432</v>
+      </c>
+      <c r="D4">
+        <v>-0.06168986799107005</v>
+      </c>
+      <c r="E4">
+        <v>0.0274296159675624</v>
+      </c>
+      <c r="F4">
+        <v>-0.02698089868653239</v>
+      </c>
+      <c r="G4">
+        <v>-0.02940640109390246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.003877946511112955</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.001240356390353186</v>
+      </c>
+      <c r="D5">
+        <v>-0.0008887249185020854</v>
+      </c>
+      <c r="E5">
+        <v>-0.004529947441457142</v>
+      </c>
+      <c r="F5">
+        <v>-0.001866600648005408</v>
+      </c>
+      <c r="G5">
+        <v>0.005688415165394081</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1673788841547156</v>
+        <v>-0.1687722201899371</v>
       </c>
       <c r="C6">
-        <v>0.02027663487105061</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.009536598049488256</v>
+      </c>
+      <c r="D6">
+        <v>-0.06348675813305799</v>
+      </c>
+      <c r="E6">
+        <v>-0.06685071124937558</v>
+      </c>
+      <c r="F6">
+        <v>-0.01667834915507858</v>
+      </c>
+      <c r="G6">
+        <v>0.02685973102640467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.05442591075837801</v>
+        <v>-0.05634464554248342</v>
       </c>
       <c r="C7">
-        <v>-0.05803989619774457</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.0632399637944157</v>
+      </c>
+      <c r="D7">
+        <v>-0.07170777558957843</v>
+      </c>
+      <c r="E7">
+        <v>0.06849011588773811</v>
+      </c>
+      <c r="F7">
+        <v>-0.006602271721630085</v>
+      </c>
+      <c r="G7">
+        <v>-0.07450179279853882</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.05354139388762084</v>
+        <v>-0.05107515283098674</v>
       </c>
       <c r="C8">
-        <v>-0.05568636208223488</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.05463841824558027</v>
+      </c>
+      <c r="D8">
+        <v>0.01534400702566549</v>
+      </c>
+      <c r="E8">
+        <v>0.0437134163214136</v>
+      </c>
+      <c r="F8">
+        <v>0.001227330548283134</v>
+      </c>
+      <c r="G8">
+        <v>-0.00252681817554223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.05802214270433611</v>
+        <v>-0.06231820162526187</v>
       </c>
       <c r="C9">
-        <v>-0.09201435760575202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.09325610016058758</v>
+      </c>
+      <c r="D9">
+        <v>-0.08973389324140331</v>
+      </c>
+      <c r="E9">
+        <v>0.05150011003586868</v>
+      </c>
+      <c r="F9">
+        <v>-0.01707118663149928</v>
+      </c>
+      <c r="G9">
+        <v>-0.005971516322898432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1139500433400008</v>
+        <v>-0.1021606461005266</v>
       </c>
       <c r="C10">
-        <v>0.1473810761687473</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.1375046716918489</v>
+      </c>
+      <c r="D10">
+        <v>0.09516365319994458</v>
+      </c>
+      <c r="E10">
+        <v>0.05460991838812818</v>
+      </c>
+      <c r="F10">
+        <v>0.01652261279541301</v>
+      </c>
+      <c r="G10">
+        <v>0.01139592117740591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0783953580501924</v>
+        <v>-0.07595654824481926</v>
       </c>
       <c r="C11">
-        <v>-0.1317011268298475</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.1307190341827652</v>
+      </c>
+      <c r="D11">
+        <v>-0.04634973834476986</v>
+      </c>
+      <c r="E11">
+        <v>0.07448132207248626</v>
+      </c>
+      <c r="F11">
+        <v>-0.01553908250702845</v>
+      </c>
+      <c r="G11">
+        <v>0.001186902757097181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.079438794965817</v>
+        <v>-0.07623400431683781</v>
       </c>
       <c r="C12">
-        <v>-0.1583744133031136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.155204905119518</v>
+      </c>
+      <c r="D12">
+        <v>-0.05361833177960589</v>
+      </c>
+      <c r="E12">
+        <v>0.07940773913475685</v>
+      </c>
+      <c r="F12">
+        <v>-0.008251200237866841</v>
+      </c>
+      <c r="G12">
+        <v>-0.02378739177816258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.04125647146775635</v>
+        <v>-0.04251023052396424</v>
       </c>
       <c r="C13">
-        <v>-0.06753931551511033</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.07261174807027516</v>
+      </c>
+      <c r="D13">
+        <v>-0.03663820026847094</v>
+      </c>
+      <c r="E13">
+        <v>0.07725563990828434</v>
+      </c>
+      <c r="F13">
+        <v>-0.01005492947459446</v>
+      </c>
+      <c r="G13">
+        <v>-0.02996184547330923</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.02023713482015714</v>
+        <v>-0.02282912561535695</v>
       </c>
       <c r="C14">
-        <v>-0.04810998471026304</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.04919390126683363</v>
+      </c>
+      <c r="D14">
+        <v>-0.04345633328243976</v>
+      </c>
+      <c r="E14">
+        <v>0.07167163202361081</v>
+      </c>
+      <c r="F14">
+        <v>-0.01293699805038137</v>
+      </c>
+      <c r="G14">
+        <v>0.009288675732337623</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>-0.03233610207197219</v>
+        <v>-0.03347641281983195</v>
       </c>
       <c r="C15">
-        <v>-0.06114204561658542</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.05910982395687982</v>
+      </c>
+      <c r="D15">
+        <v>-0.04571659972777117</v>
+      </c>
+      <c r="E15">
+        <v>0.03118483340011092</v>
+      </c>
+      <c r="F15">
+        <v>0.01804459457817391</v>
+      </c>
+      <c r="G15">
+        <v>-0.01191991398394926</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.05709702456685799</v>
+        <v>-0.05599902048723714</v>
       </c>
       <c r="C16">
-        <v>-0.1538369974985993</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.1524616156909163</v>
+      </c>
+      <c r="D16">
+        <v>-0.04989241964736194</v>
+      </c>
+      <c r="E16">
+        <v>0.06249178508278252</v>
+      </c>
+      <c r="F16">
+        <v>-0.03292742215871402</v>
+      </c>
+      <c r="G16">
+        <v>0.01075369174119038</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.006439842014389785</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0.004153645595752016</v>
+      </c>
+      <c r="D17">
+        <v>0.001791779759223165</v>
+      </c>
+      <c r="E17">
+        <v>-0.008185661792626952</v>
+      </c>
+      <c r="F17">
+        <v>0.009432801703498986</v>
+      </c>
+      <c r="G17">
+        <v>0.008624077528220376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>-0.04253950220176272</v>
+        <v>-0.05288167803232992</v>
       </c>
       <c r="C18">
-        <v>-0.05221572136720824</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.04723062323550489</v>
+      </c>
+      <c r="D18">
+        <v>0.004382577349918455</v>
+      </c>
+      <c r="E18">
+        <v>-0.05545450028960157</v>
+      </c>
+      <c r="F18">
+        <v>0.01023676649260808</v>
+      </c>
+      <c r="G18">
+        <v>0.01716691761029131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.05632239559269352</v>
+        <v>-0.05571720354569811</v>
       </c>
       <c r="C20">
-        <v>-0.1012934867431092</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.09967398662537283</v>
+      </c>
+      <c r="D20">
+        <v>-0.07494799531524621</v>
+      </c>
+      <c r="E20">
+        <v>0.06482031806567849</v>
+      </c>
+      <c r="F20">
+        <v>-0.009614748585604046</v>
+      </c>
+      <c r="G20">
+        <v>-0.003758544504795816</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.04402546858598148</v>
+        <v>-0.04521557608829527</v>
       </c>
       <c r="C21">
-        <v>-0.06260703041628105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.0603449295453002</v>
+      </c>
+      <c r="D21">
+        <v>-0.01667116098723767</v>
+      </c>
+      <c r="E21">
+        <v>0.06815036491535349</v>
+      </c>
+      <c r="F21">
+        <v>-0.0136370682440259</v>
+      </c>
+      <c r="G21">
+        <v>-0.02709755426373503</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.04413652737816275</v>
+        <v>-0.04408806391069335</v>
       </c>
       <c r="C22">
-        <v>-0.03404212884979271</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.03820955425613167</v>
+      </c>
+      <c r="D22">
+        <v>0.1010265716358733</v>
+      </c>
+      <c r="E22">
+        <v>-0.05619012411751342</v>
+      </c>
+      <c r="F22">
+        <v>-0.09061216024269435</v>
+      </c>
+      <c r="G22">
+        <v>0.1137055767305527</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.04414601458954594</v>
+        <v>-0.04409637136882921</v>
       </c>
       <c r="C23">
-        <v>-0.03403564644552851</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.03820390291918349</v>
+      </c>
+      <c r="D23">
+        <v>0.1010664501285612</v>
+      </c>
+      <c r="E23">
+        <v>-0.05618778980917698</v>
+      </c>
+      <c r="F23">
+        <v>-0.09061308185789628</v>
+      </c>
+      <c r="G23">
+        <v>0.1137699751008951</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.06535929023837674</v>
+        <v>-0.06399922764555532</v>
       </c>
       <c r="C24">
-        <v>-0.1408048936225793</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.1373252576240041</v>
+      </c>
+      <c r="D24">
+        <v>-0.05531914417760254</v>
+      </c>
+      <c r="E24">
+        <v>0.06670112231613265</v>
+      </c>
+      <c r="F24">
+        <v>-0.02013346251298826</v>
+      </c>
+      <c r="G24">
+        <v>-0.008394770063570461</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.07027635086974642</v>
+        <v>-0.06826947007362839</v>
       </c>
       <c r="C25">
-        <v>-0.1229659372228138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.1212811986045874</v>
+      </c>
+      <c r="D25">
+        <v>-0.04275285912489591</v>
+      </c>
+      <c r="E25">
+        <v>0.09561679792611047</v>
+      </c>
+      <c r="F25">
+        <v>0.005857544230988204</v>
+      </c>
+      <c r="G25">
+        <v>-0.03554485112081211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.05620825202996649</v>
+        <v>-0.05986552014113991</v>
       </c>
       <c r="C26">
-        <v>-0.07027779722197119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.07280943073242957</v>
+      </c>
+      <c r="D26">
+        <v>-0.01932427546917535</v>
+      </c>
+      <c r="E26">
+        <v>0.07995193118145349</v>
+      </c>
+      <c r="F26">
+        <v>0.001494216009406648</v>
+      </c>
+      <c r="G26">
+        <v>-0.0174767965852009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1726399198661747</v>
+        <v>-0.1761466143921551</v>
       </c>
       <c r="C28">
-        <v>0.2317072294231329</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.2311459522139878</v>
+      </c>
+      <c r="D28">
+        <v>-0.002352756760081439</v>
+      </c>
+      <c r="E28">
+        <v>0.1548379875338701</v>
+      </c>
+      <c r="F28">
+        <v>0.02180756828424018</v>
+      </c>
+      <c r="G28">
+        <v>-0.02612485267291652</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.02470553115084992</v>
+        <v>-0.02670423072926461</v>
       </c>
       <c r="C29">
-        <v>-0.05513534702429546</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.05303563143348807</v>
+      </c>
+      <c r="D29">
+        <v>-0.009362210085686381</v>
+      </c>
+      <c r="E29">
+        <v>0.0690793684516868</v>
+      </c>
+      <c r="F29">
+        <v>-0.01294247611028524</v>
+      </c>
+      <c r="G29">
+        <v>0.005834174503223225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.03735356439840846</v>
+        <v>-0.03921699280216349</v>
       </c>
       <c r="C30">
-        <v>-0.06900278065383574</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.07556692356986597</v>
+      </c>
+      <c r="D30">
+        <v>-0.1417509466000156</v>
+      </c>
+      <c r="E30">
+        <v>0.0783298596342238</v>
+      </c>
+      <c r="F30">
+        <v>0.03330160879288366</v>
+      </c>
+      <c r="G30">
+        <v>-0.04123657797022935</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05274125472573162</v>
+        <v>-0.05179828869286402</v>
       </c>
       <c r="C31">
-        <v>-0.03648368051431262</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.03863821966297736</v>
+      </c>
+      <c r="D31">
+        <v>-0.0001350404147087649</v>
+      </c>
+      <c r="E31">
+        <v>0.008169098587381877</v>
+      </c>
+      <c r="F31">
+        <v>-0.04512576026765588</v>
+      </c>
+      <c r="G31">
+        <v>0.01125680489333445</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.04284235171347694</v>
+        <v>-0.04595473760474331</v>
       </c>
       <c r="C32">
-        <v>-0.05575023299447522</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.05414564412676235</v>
+      </c>
+      <c r="D32">
+        <v>-0.01175019017911065</v>
+      </c>
+      <c r="E32">
+        <v>0.005008424012897554</v>
+      </c>
+      <c r="F32">
+        <v>0.01674907175738406</v>
+      </c>
+      <c r="G32">
+        <v>-0.01137297017259307</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.07757688199825687</v>
+        <v>-0.0814304774401664</v>
       </c>
       <c r="C33">
-        <v>-0.1157228789207847</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.1246624747059767</v>
+      </c>
+      <c r="D33">
+        <v>-0.07390152782061822</v>
+      </c>
+      <c r="E33">
+        <v>0.06000926590382218</v>
+      </c>
+      <c r="F33">
+        <v>-0.02914684976747872</v>
+      </c>
+      <c r="G33">
+        <v>0.01516275484132316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05486114911150017</v>
+        <v>-0.05387024983971817</v>
       </c>
       <c r="C34">
-        <v>-0.1251401708357048</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.1247464756086954</v>
+      </c>
+      <c r="D34">
+        <v>-0.08010167398039644</v>
+      </c>
+      <c r="E34">
+        <v>0.08333332880332145</v>
+      </c>
+      <c r="F34">
+        <v>0.00305526420389709</v>
+      </c>
+      <c r="G34">
+        <v>0.02018899347813665</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>-0.02588666750930849</v>
+        <v>-0.02867783124558474</v>
       </c>
       <c r="C35">
-        <v>-0.01880685237604503</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.0210239905959482</v>
+      </c>
+      <c r="D35">
+        <v>-0.01008864777120855</v>
+      </c>
+      <c r="E35">
+        <v>0.03166518544676544</v>
+      </c>
+      <c r="F35">
+        <v>0.01087698114115472</v>
+      </c>
+      <c r="G35">
+        <v>0.02273414541405694</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.0250800462284903</v>
+        <v>-0.02733911567446239</v>
       </c>
       <c r="C36">
-        <v>-0.05386281045438319</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.05265113061838924</v>
+      </c>
+      <c r="D36">
+        <v>-0.05629029216918855</v>
+      </c>
+      <c r="E36">
+        <v>0.02036402778762665</v>
+      </c>
+      <c r="F36">
+        <v>0.02511483649476626</v>
+      </c>
+      <c r="G36">
+        <v>0.08717760184128803</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>-0.0005227124364577505</v>
+        <v>-0.003792197284412253</v>
       </c>
       <c r="C37">
-        <v>0.0002548780928529956</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>0.007136759663819858</v>
+      </c>
+      <c r="D37">
+        <v>-0.001845524694219862</v>
+      </c>
+      <c r="E37">
+        <v>0.009389454556670339</v>
+      </c>
+      <c r="F37">
+        <v>-0.005755814845094283</v>
+      </c>
+      <c r="G37">
+        <v>-0.004477753192018312</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.07931821742715169</v>
+        <v>-0.07473080416046594</v>
       </c>
       <c r="C39">
-        <v>-0.1531879680707164</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.1465160849035247</v>
+      </c>
+      <c r="D39">
+        <v>-0.02261355457343913</v>
+      </c>
+      <c r="E39">
+        <v>0.1229143669655532</v>
+      </c>
+      <c r="F39">
+        <v>-0.05436468786127619</v>
+      </c>
+      <c r="G39">
+        <v>-0.03336277052417927</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.04740292236778162</v>
+        <v>-0.05028661250623273</v>
       </c>
       <c r="C40">
-        <v>-0.07166790022260662</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.07731219457670598</v>
+      </c>
+      <c r="D40">
+        <v>-0.01146512396355273</v>
+      </c>
+      <c r="E40">
+        <v>0.05255327556617404</v>
+      </c>
+      <c r="F40">
+        <v>0.037166040892972</v>
+      </c>
+      <c r="G40">
+        <v>0.007345254360222128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02820810063896156</v>
+        <v>-0.02824226031405071</v>
       </c>
       <c r="C41">
-        <v>-0.02317321194819523</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.02437155308505553</v>
+      </c>
+      <c r="D41">
+        <v>0.01149916888500037</v>
+      </c>
+      <c r="E41">
+        <v>-0.00792662393558786</v>
+      </c>
+      <c r="F41">
+        <v>0.01541825542392681</v>
+      </c>
+      <c r="G41">
+        <v>0.003953133379480066</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04277587446861114</v>
+        <v>-0.04124467104567913</v>
       </c>
       <c r="C43">
-        <v>-0.0406538275747649</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.03726500270976055</v>
+      </c>
+      <c r="D43">
+        <v>0.01436808989227516</v>
+      </c>
+      <c r="E43">
+        <v>0.01603086109703725</v>
+      </c>
+      <c r="F43">
+        <v>-0.02883271787356007</v>
+      </c>
+      <c r="G43">
+        <v>0.03118645772531892</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.05738022461629499</v>
+        <v>-0.0618755859702402</v>
       </c>
       <c r="C44">
-        <v>-0.09075212119376103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.0922594671336905</v>
+      </c>
+      <c r="D44">
+        <v>-0.2906994688493916</v>
+      </c>
+      <c r="E44">
+        <v>0.1193506814001952</v>
+      </c>
+      <c r="F44">
+        <v>0.0615005623353577</v>
+      </c>
+      <c r="G44">
+        <v>0.1439837767840882</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0005758456315659431</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>0.0007007778369417159</v>
+      </c>
+      <c r="D45">
+        <v>0.0002406434534819493</v>
+      </c>
+      <c r="E45">
+        <v>-0.002671791262822435</v>
+      </c>
+      <c r="F45">
+        <v>-0.002190189390500829</v>
+      </c>
+      <c r="G45">
+        <v>-0.003308020118407764</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.02816362007263966</v>
+        <v>-0.02911167988964832</v>
       </c>
       <c r="C46">
-        <v>-0.04170226384929341</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.0397463219428025</v>
+      </c>
+      <c r="D46">
+        <v>-0.003755472655650917</v>
+      </c>
+      <c r="E46">
+        <v>0.05699664311319524</v>
+      </c>
+      <c r="F46">
+        <v>-0.05082267808245217</v>
+      </c>
+      <c r="G46">
+        <v>0.005826400764714404</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.05441190805170163</v>
+        <v>-0.05294954285817368</v>
       </c>
       <c r="C47">
-        <v>-0.03883955297951788</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.03836692370418786</v>
+      </c>
+      <c r="D47">
+        <v>0.03518127681992388</v>
+      </c>
+      <c r="E47">
+        <v>-0.02064590985026599</v>
+      </c>
+      <c r="F47">
+        <v>-0.05916385408624449</v>
+      </c>
+      <c r="G47">
+        <v>0.03418210853220276</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.04671525369560046</v>
+        <v>-0.04903916157171207</v>
       </c>
       <c r="C48">
-        <v>-0.06958223122976517</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.0694908804719418</v>
+      </c>
+      <c r="D48">
+        <v>-0.02978309526608486</v>
+      </c>
+      <c r="E48">
+        <v>0.06103984984109323</v>
+      </c>
+      <c r="F48">
+        <v>-0.01031411328901662</v>
+      </c>
+      <c r="G48">
+        <v>-0.03854645387353612</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>-0.1913015647449871</v>
+        <v>-0.1965129314981315</v>
       </c>
       <c r="C49">
-        <v>0.01612516753321914</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.01150336785497917</v>
+      </c>
+      <c r="D49">
+        <v>-0.043978991903498</v>
+      </c>
+      <c r="E49">
+        <v>-0.03939507061810506</v>
+      </c>
+      <c r="F49">
+        <v>0.0330916834828229</v>
+      </c>
+      <c r="G49">
+        <v>-0.06427433926718563</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.05183619257540794</v>
+        <v>-0.05221767214769427</v>
       </c>
       <c r="C50">
-        <v>-0.03522332336691401</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.03766021776162666</v>
+      </c>
+      <c r="D50">
+        <v>-0.01566953673227852</v>
+      </c>
+      <c r="E50">
+        <v>0.0009303309272484692</v>
+      </c>
+      <c r="F50">
+        <v>-0.0388891635200817</v>
+      </c>
+      <c r="G50">
+        <v>0.00273702987543635</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>-0.1416394218083</v>
+        <v>-0.1366246474129393</v>
       </c>
       <c r="C52">
-        <v>-0.03473848564354654</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.03390028580195697</v>
+      </c>
+      <c r="D52">
+        <v>-0.03570826420415629</v>
+      </c>
+      <c r="E52">
+        <v>-0.09428182214744261</v>
+      </c>
+      <c r="F52">
+        <v>-0.06817618968548367</v>
+      </c>
+      <c r="G52">
+        <v>0.03704029415395154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.1684852554027889</v>
+        <v>-0.1620741483526003</v>
       </c>
       <c r="C53">
-        <v>0.009166712799122859</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.005343355008484115</v>
+      </c>
+      <c r="D53">
+        <v>-0.07168409372504629</v>
+      </c>
+      <c r="E53">
+        <v>-0.1532705484224542</v>
+      </c>
+      <c r="F53">
+        <v>-0.1108649429596755</v>
+      </c>
+      <c r="G53">
+        <v>0.03273441462527181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01195807263751195</v>
+        <v>-0.01362117179448748</v>
       </c>
       <c r="C54">
-        <v>-0.03714215848929887</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.03741575168462619</v>
+      </c>
+      <c r="D54">
+        <v>-0.01098385143253701</v>
+      </c>
+      <c r="E54">
+        <v>0.04326660391990166</v>
+      </c>
+      <c r="F54">
+        <v>-0.01292220166250445</v>
+      </c>
+      <c r="G54">
+        <v>-0.002244424521507817</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.1212918558130777</v>
+        <v>-0.1189187600136086</v>
       </c>
       <c r="C55">
-        <v>-0.01233107679259376</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.01659099765068894</v>
+      </c>
+      <c r="D55">
+        <v>-0.04806998311132139</v>
+      </c>
+      <c r="E55">
+        <v>-0.07415393913134261</v>
+      </c>
+      <c r="F55">
+        <v>-0.1263228192802464</v>
+      </c>
+      <c r="G55">
+        <v>0.04450753281043216</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1797258592396287</v>
+        <v>-0.174385833439561</v>
       </c>
       <c r="C56">
-        <v>0.005821040701219324</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.005072887048272353</v>
+      </c>
+      <c r="D56">
+        <v>-0.02189477932893764</v>
+      </c>
+      <c r="E56">
+        <v>-0.179191163251084</v>
+      </c>
+      <c r="F56">
+        <v>-0.1034572145875474</v>
+      </c>
+      <c r="G56">
+        <v>0.02236719091516529</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04277717000132929</v>
+        <v>-0.04192981854906438</v>
       </c>
       <c r="C58">
-        <v>-0.09813067019152677</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.1079853828729158</v>
+      </c>
+      <c r="D58">
+        <v>0.006216088773182477</v>
+      </c>
+      <c r="E58">
+        <v>0.03071790338041298</v>
+      </c>
+      <c r="F58">
+        <v>-0.03400595090714338</v>
+      </c>
+      <c r="G58">
+        <v>-0.003115506164743715</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1853020237541089</v>
+        <v>-0.1920353121499271</v>
       </c>
       <c r="C59">
-        <v>0.1718186153063687</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.1789839981392152</v>
+      </c>
+      <c r="D59">
+        <v>0.08345434240564117</v>
+      </c>
+      <c r="E59">
+        <v>0.07598411600088502</v>
+      </c>
+      <c r="F59">
+        <v>-0.02523635764580212</v>
+      </c>
+      <c r="G59">
+        <v>-0.04397651164055277</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.211633369161691</v>
+        <v>-0.2093668583056743</v>
       </c>
       <c r="C60">
-        <v>-0.007722565774404894</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.01159506144126499</v>
+      </c>
+      <c r="D60">
+        <v>0.06840990712707423</v>
+      </c>
+      <c r="E60">
+        <v>-0.1852216663031436</v>
+      </c>
+      <c r="F60">
+        <v>-0.0222029167560773</v>
+      </c>
+      <c r="G60">
+        <v>-0.09575719855353232</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.06253304277684009</v>
+        <v>-0.06024890268026398</v>
       </c>
       <c r="C61">
-        <v>-0.1277357771373571</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.1256675816599477</v>
+      </c>
+      <c r="D61">
+        <v>-0.02222825132626381</v>
+      </c>
+      <c r="E61">
+        <v>0.0819885947661463</v>
+      </c>
+      <c r="F61">
+        <v>-0.01703590340497138</v>
+      </c>
+      <c r="G61">
+        <v>-0.02743698845768832</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>-0.1695198143187472</v>
+        <v>-0.1657446596940097</v>
       </c>
       <c r="C62">
-        <v>0.005248295269076645</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.004329763853152385</v>
+      </c>
+      <c r="D62">
+        <v>-0.02145871552316646</v>
+      </c>
+      <c r="E62">
+        <v>-0.150603818116409</v>
+      </c>
+      <c r="F62">
+        <v>-0.09404209429120741</v>
+      </c>
+      <c r="G62">
+        <v>0.03256730706621056</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.0391101871018137</v>
+        <v>-0.04176097844891644</v>
       </c>
       <c r="C63">
-        <v>-0.07803875580592765</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.08150437972080637</v>
+      </c>
+      <c r="D63">
+        <v>-0.01472040295258926</v>
+      </c>
+      <c r="E63">
+        <v>0.04470492900169651</v>
+      </c>
+      <c r="F63">
+        <v>0.01048833947547459</v>
+      </c>
+      <c r="G63">
+        <v>0.02028153221105753</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.1119896703579354</v>
+        <v>-0.1094156778481311</v>
       </c>
       <c r="C64">
-        <v>-0.05390852846608218</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.05852214835556526</v>
+      </c>
+      <c r="D64">
+        <v>-0.02057535097779989</v>
+      </c>
+      <c r="E64">
+        <v>-0.03973764195349097</v>
+      </c>
+      <c r="F64">
+        <v>0.008719864792879749</v>
+      </c>
+      <c r="G64">
+        <v>-0.01474301869930775</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.1584695499370353</v>
+        <v>-0.1607759278265886</v>
       </c>
       <c r="C65">
-        <v>0.05991006494143161</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04804124484071429</v>
+      </c>
+      <c r="D65">
+        <v>-0.06852700645939301</v>
+      </c>
+      <c r="E65">
+        <v>-0.02630502536947028</v>
+      </c>
+      <c r="F65">
+        <v>-0.05219309976647647</v>
+      </c>
+      <c r="G65">
+        <v>0.02460643320038619</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.09643370129442161</v>
+        <v>-0.09194793658827802</v>
       </c>
       <c r="C66">
-        <v>-0.1322818535118112</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.1310736400594587</v>
+      </c>
+      <c r="D66">
+        <v>-0.02447711420807596</v>
+      </c>
+      <c r="E66">
+        <v>0.1001378908707582</v>
+      </c>
+      <c r="F66">
+        <v>-0.004745256789817814</v>
+      </c>
+      <c r="G66">
+        <v>-0.008609532953394077</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05519472828809589</v>
+        <v>-0.04828174078529127</v>
       </c>
       <c r="C67">
-        <v>-0.0939487853409183</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.08509519315151307</v>
+      </c>
+      <c r="D67">
+        <v>0.07092616414016063</v>
+      </c>
+      <c r="E67">
+        <v>-0.05126514970785531</v>
+      </c>
+      <c r="F67">
+        <v>-0.04434043059290915</v>
+      </c>
+      <c r="G67">
+        <v>0.05798549520760269</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1422915460108224</v>
+        <v>-0.1446262895771709</v>
       </c>
       <c r="C68">
-        <v>0.2521365478073688</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.2515706070705624</v>
+      </c>
+      <c r="D68">
+        <v>0.0007322111544991236</v>
+      </c>
+      <c r="E68">
+        <v>0.148498797224956</v>
+      </c>
+      <c r="F68">
+        <v>0.03461395511233316</v>
+      </c>
+      <c r="G68">
+        <v>-0.07047974815874401</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.04004743276557028</v>
+        <v>-0.0388380514646304</v>
       </c>
       <c r="C69">
-        <v>-0.01870815526164219</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.02044480770881005</v>
+      </c>
+      <c r="D69">
+        <v>0.01166762922217677</v>
+      </c>
+      <c r="E69">
+        <v>-0.06121953280951557</v>
+      </c>
+      <c r="F69">
+        <v>-0.02707891172661515</v>
+      </c>
+      <c r="G69">
+        <v>0.0654411293489701</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>-0.07539332239290825</v>
+        <v>-0.07323386129552024</v>
       </c>
       <c r="C70">
-        <v>-0.09509830290667574</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0931934971332634</v>
+      </c>
+      <c r="D70">
+        <v>0.5415795690874894</v>
+      </c>
+      <c r="E70">
+        <v>-0.2690099374619798</v>
+      </c>
+      <c r="F70">
+        <v>-0.1307934399061066</v>
+      </c>
+      <c r="G70">
+        <v>-0.5127944321160041</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1663926282910178</v>
+        <v>-0.1692795866059095</v>
       </c>
       <c r="C71">
-        <v>0.2588786080236972</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.2561622461472313</v>
+      </c>
+      <c r="D71">
+        <v>0.003990575563888201</v>
+      </c>
+      <c r="E71">
+        <v>0.1573343907476458</v>
+      </c>
+      <c r="F71">
+        <v>0.04467762522373257</v>
+      </c>
+      <c r="G71">
+        <v>-0.08098507710428564</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1450512940790303</v>
+        <v>-0.1495251361353006</v>
       </c>
       <c r="C72">
-        <v>-0.01039497349470402</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.00995067440963809</v>
+      </c>
+      <c r="D72">
+        <v>-0.04305352693288837</v>
+      </c>
+      <c r="E72">
+        <v>-0.05268353320069401</v>
+      </c>
+      <c r="F72">
+        <v>-0.06194003206880706</v>
+      </c>
+      <c r="G72">
+        <v>0.08424754441675493</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.1918433970944604</v>
+        <v>-0.1994113792032946</v>
       </c>
       <c r="C73">
-        <v>-0.02859543920153644</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.03390908899330582</v>
+      </c>
+      <c r="D73">
+        <v>-0.04300949570271936</v>
+      </c>
+      <c r="E73">
+        <v>-0.1280423533150993</v>
+      </c>
+      <c r="F73">
+        <v>-0.03424737535924392</v>
+      </c>
+      <c r="G73">
+        <v>0.04166951514532655</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.08719890188858903</v>
+        <v>-0.08591149330179308</v>
       </c>
       <c r="C74">
-        <v>-0.003846976505243143</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.01091094933217535</v>
+      </c>
+      <c r="D74">
+        <v>-0.06336560518515143</v>
+      </c>
+      <c r="E74">
+        <v>-0.08772654683332022</v>
+      </c>
+      <c r="F74">
+        <v>-0.03293926846451569</v>
+      </c>
+      <c r="G74">
+        <v>0.0387996424552209</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.123262255702175</v>
+        <v>-0.1157137265201439</v>
       </c>
       <c r="C75">
-        <v>-0.02628273232322597</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.0274951079586319</v>
+      </c>
+      <c r="D75">
+        <v>-0.02271590586126987</v>
+      </c>
+      <c r="E75">
+        <v>-0.09703691436548409</v>
+      </c>
+      <c r="F75">
+        <v>-0.1021323654175214</v>
+      </c>
+      <c r="G75">
+        <v>0.06927576475406381</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07610209167476115</v>
+        <v>-0.08706199783151315</v>
       </c>
       <c r="C77">
-        <v>-0.1168404710205564</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.1206329194035689</v>
+      </c>
+      <c r="D77">
+        <v>-0.08702518541775479</v>
+      </c>
+      <c r="E77">
+        <v>0.07307525473827563</v>
+      </c>
+      <c r="F77">
+        <v>-0.07362076595008549</v>
+      </c>
+      <c r="G77">
+        <v>-0.1345634958230257</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.08137932523652663</v>
+        <v>-0.08714166169402858</v>
       </c>
       <c r="C78">
-        <v>-0.1265221785758635</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.1254784240481508</v>
+      </c>
+      <c r="D78">
+        <v>-0.06603310538824968</v>
+      </c>
+      <c r="E78">
+        <v>0.08465883413399934</v>
+      </c>
+      <c r="F78">
+        <v>-0.1073523633403038</v>
+      </c>
+      <c r="G78">
+        <v>-0.0257861064033932</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.1675047895044453</v>
+        <v>-0.1633485913451468</v>
       </c>
       <c r="C79">
-        <v>-0.02076177977483411</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.02177622830974314</v>
+      </c>
+      <c r="D79">
+        <v>-0.01122343653304327</v>
+      </c>
+      <c r="E79">
+        <v>-0.08067975887621315</v>
+      </c>
+      <c r="F79">
+        <v>-0.08396505875022474</v>
+      </c>
+      <c r="G79">
+        <v>0.04431714758350054</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.07850496461089379</v>
+        <v>-0.07471079016327638</v>
       </c>
       <c r="C80">
-        <v>-0.08084613225803641</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.07568061619192179</v>
+      </c>
+      <c r="D80">
+        <v>0.0008887504528201451</v>
+      </c>
+      <c r="E80">
+        <v>0.09561069020631115</v>
+      </c>
+      <c r="F80">
+        <v>0.06260772269627318</v>
+      </c>
+      <c r="G80">
+        <v>0.04134890431772358</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1123148143093163</v>
+        <v>-0.1058609711127779</v>
       </c>
       <c r="C81">
-        <v>0.0138166369083468</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.01175536384564593</v>
+      </c>
+      <c r="D81">
+        <v>0.005617810717891663</v>
+      </c>
+      <c r="E81">
+        <v>-0.1035052808764522</v>
+      </c>
+      <c r="F81">
+        <v>-0.07863851829549202</v>
+      </c>
+      <c r="G81">
+        <v>0.1036042209009994</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1631716638525767</v>
+        <v>-0.1579225547145579</v>
       </c>
       <c r="C82">
-        <v>0.01354958711188257</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.009399960803432432</v>
+      </c>
+      <c r="D82">
+        <v>-0.07361636232772913</v>
+      </c>
+      <c r="E82">
+        <v>-0.1451743360434349</v>
+      </c>
+      <c r="F82">
+        <v>-0.03061436811840007</v>
+      </c>
+      <c r="G82">
+        <v>0.05448074720592613</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.05417423911563235</v>
+        <v>-0.0505390815044668</v>
       </c>
       <c r="C83">
-        <v>-0.06899191299496998</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.06303032954661623</v>
+      </c>
+      <c r="D83">
+        <v>0.01226265972608633</v>
+      </c>
+      <c r="E83">
+        <v>0.001149494846060659</v>
+      </c>
+      <c r="F83">
+        <v>0.00602000203632377</v>
+      </c>
+      <c r="G83">
+        <v>-0.02816200764517113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>-0.04779723522149357</v>
+        <v>-0.0465892526539464</v>
       </c>
       <c r="C84">
-        <v>-0.07795424626477891</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.07491555328598735</v>
+      </c>
+      <c r="D84">
+        <v>0.02255558931818276</v>
+      </c>
+      <c r="E84">
+        <v>-0.009367920540951504</v>
+      </c>
+      <c r="F84">
+        <v>-0.01645113847490287</v>
+      </c>
+      <c r="G84">
+        <v>-0.0189807073957716</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1387627406166782</v>
+        <v>-0.1342908537921925</v>
       </c>
       <c r="C85">
-        <v>-0.007624625302158725</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.009571717181628145</v>
+      </c>
+      <c r="D85">
+        <v>-0.07275967099153374</v>
+      </c>
+      <c r="E85">
+        <v>-0.08004508267021319</v>
+      </c>
+      <c r="F85">
+        <v>-0.0859135827093019</v>
+      </c>
+      <c r="G85">
+        <v>0.06020211923752883</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.08308401386705067</v>
+        <v>-0.08304521784894911</v>
       </c>
       <c r="C86">
-        <v>-0.1519444890530263</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.1537703676877125</v>
+      </c>
+      <c r="D86">
+        <v>0.6086449481427192</v>
+      </c>
+      <c r="E86">
+        <v>0.4441403654052874</v>
+      </c>
+      <c r="F86">
+        <v>-0.2074946755096327</v>
+      </c>
+      <c r="G86">
+        <v>0.4337201966992769</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.09049393151762118</v>
+        <v>-0.08656907978772055</v>
       </c>
       <c r="C87">
-        <v>-0.1007690461416545</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.1000972114571553</v>
+      </c>
+      <c r="D87">
+        <v>-0.1144965561586698</v>
+      </c>
+      <c r="E87">
+        <v>0.1214074810094269</v>
+      </c>
+      <c r="F87">
+        <v>0.1466505693871306</v>
+      </c>
+      <c r="G87">
+        <v>-0.1213960072259968</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.05994642997183119</v>
+        <v>-0.0597270765424624</v>
       </c>
       <c r="C88">
-        <v>-0.06230809847603167</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.06225643041590634</v>
+      </c>
+      <c r="D88">
+        <v>-0.005054275577078369</v>
+      </c>
+      <c r="E88">
+        <v>-0.02912358958863697</v>
+      </c>
+      <c r="F88">
+        <v>-0.01782491662346071</v>
+      </c>
+      <c r="G88">
+        <v>0.00506868143706798</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1516352167362218</v>
+        <v>-0.1515435830391481</v>
       </c>
       <c r="C89">
-        <v>0.2006690274143552</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.2085484203506317</v>
+      </c>
+      <c r="D89">
+        <v>-0.01134753059056035</v>
+      </c>
+      <c r="E89">
+        <v>0.1125741536869278</v>
+      </c>
+      <c r="F89">
+        <v>0.04695705927183993</v>
+      </c>
+      <c r="G89">
+        <v>-0.04249316717282071</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1833184765901148</v>
+        <v>-0.1871910330978008</v>
       </c>
       <c r="C90">
-        <v>0.2327545012035922</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.2356615926049594</v>
+      </c>
+      <c r="D90">
+        <v>0.005162170161684908</v>
+      </c>
+      <c r="E90">
+        <v>0.1884444683795555</v>
+      </c>
+      <c r="F90">
+        <v>0.08125156579937008</v>
+      </c>
+      <c r="G90">
+        <v>-0.09202600156829385</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.12639189929868</v>
+        <v>-0.1202558026332591</v>
       </c>
       <c r="C91">
-        <v>0.01927170470976351</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.01711362652625297</v>
+      </c>
+      <c r="D91">
+        <v>0.03023410696810405</v>
+      </c>
+      <c r="E91">
+        <v>-0.1358097542085229</v>
+      </c>
+      <c r="F91">
+        <v>-0.08516024276023069</v>
+      </c>
+      <c r="G91">
+        <v>0.1275940727296516</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1753272944330241</v>
+        <v>-0.1772559568632495</v>
       </c>
       <c r="C92">
-        <v>0.2673517431283078</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.2765662182943282</v>
+      </c>
+      <c r="D92">
+        <v>0.007519829309230741</v>
+      </c>
+      <c r="E92">
+        <v>0.2156089572174066</v>
+      </c>
+      <c r="F92">
+        <v>-0.008638134541105116</v>
+      </c>
+      <c r="G92">
+        <v>-0.08209706006300732</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1795595645801825</v>
+        <v>-0.1869965699000857</v>
       </c>
       <c r="C93">
-        <v>0.2254485088216267</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.2291396082478644</v>
+      </c>
+      <c r="D93">
+        <v>0.007383126569206817</v>
+      </c>
+      <c r="E93">
+        <v>0.1096169536542383</v>
+      </c>
+      <c r="F93">
+        <v>-0.02479123765881581</v>
+      </c>
+      <c r="G93">
+        <v>-0.06762323052539035</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.118730540481615</v>
+        <v>-0.112688600497732</v>
       </c>
       <c r="C94">
-        <v>-0.03683835155508009</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.03726826957123341</v>
+      </c>
+      <c r="D94">
+        <v>-0.02090896881651413</v>
+      </c>
+      <c r="E94">
+        <v>-0.09464795410397021</v>
+      </c>
+      <c r="F94">
+        <v>-0.09822874409227177</v>
+      </c>
+      <c r="G94">
+        <v>0.06593907468649762</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1177810748021249</v>
+        <v>-0.1181104471435857</v>
       </c>
       <c r="C95">
-        <v>-0.1059337909690127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.1148974847901854</v>
+      </c>
+      <c r="D95">
+        <v>0.006877892574804831</v>
+      </c>
+      <c r="E95">
+        <v>0.07033708943033425</v>
+      </c>
+      <c r="F95">
+        <v>-0.01791675061840172</v>
+      </c>
+      <c r="G95">
+        <v>-0.009666367072354172</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>-0.1169324825077144</v>
+        <v>-0.1147603429614632</v>
       </c>
       <c r="C96">
-        <v>-0.1280912450503196</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>0.1313724408534364</v>
+      </c>
+      <c r="D96">
+        <v>0.01549611129586649</v>
+      </c>
+      <c r="E96">
+        <v>-0.05338904976163104</v>
+      </c>
+      <c r="F96">
+        <v>-0.01277158868937475</v>
+      </c>
+      <c r="G96">
+        <v>-0.1308542126159399</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>-0.1976759236022664</v>
+        <v>-0.2006239698827847</v>
       </c>
       <c r="C97">
-        <v>-0.01698963331270489</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.009001145464427067</v>
+      </c>
+      <c r="D97">
+        <v>0.182489896722686</v>
+      </c>
+      <c r="E97">
+        <v>-0.2477454565621736</v>
+      </c>
+      <c r="F97">
+        <v>0.7025634667741176</v>
+      </c>
+      <c r="G97">
+        <v>0.4145432579345767</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.197979959621808</v>
+        <v>-0.2047506086894996</v>
       </c>
       <c r="C98">
-        <v>-0.02555730050846065</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.02828478760173006</v>
+      </c>
+      <c r="D98">
+        <v>0.06832671775140535</v>
+      </c>
+      <c r="E98">
+        <v>-0.07422295732152058</v>
+      </c>
+      <c r="F98">
+        <v>0.09719925735256747</v>
+      </c>
+      <c r="G98">
+        <v>-0.1128881523655559</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>-0.05389724464551676</v>
+        <v>-0.05334347988441692</v>
       </c>
       <c r="C99">
-        <v>-0.06303732247706181</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.06246809922185891</v>
+      </c>
+      <c r="D99">
+        <v>0.002867571765889719</v>
+      </c>
+      <c r="E99">
+        <v>0.03799928574753909</v>
+      </c>
+      <c r="F99">
+        <v>0.02440629227482261</v>
+      </c>
+      <c r="G99">
+        <v>-0.007035374355982981</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>-0.09944238616404773</v>
+        <v>-0.09554377758549688</v>
       </c>
       <c r="C100">
-        <v>-0.3082129119731216</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>0.2915457075827666</v>
+      </c>
+      <c r="D100">
+        <v>0.135005332557518</v>
+      </c>
+      <c r="E100">
+        <v>0.1254210617799038</v>
+      </c>
+      <c r="F100">
+        <v>0.4683167227730995</v>
+      </c>
+      <c r="G100">
+        <v>-0.3412542102684018</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.02463383655959215</v>
+        <v>-0.02663839479785875</v>
       </c>
       <c r="C101">
-        <v>-0.05454309440755971</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.05243001727675395</v>
+      </c>
+      <c r="D101">
+        <v>-0.005021659333485392</v>
+      </c>
+      <c r="E101">
+        <v>0.06434780814610778</v>
+      </c>
+      <c r="F101">
+        <v>-0.01441657539050614</v>
+      </c>
+      <c r="G101">
+        <v>0.0031767776335813</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
